--- a/data-edit.xlsx
+++ b/data-edit.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\HTML\cheque-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22562D4C-51BA-4137-84BB-6673BBCC70DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E849F-41A9-4B3A-BF74-66CC9264279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C1C8DE55-10D6-4C70-BDB2-55145438E4CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="income" sheetId="3" r:id="rId2"/>
+    <sheet name="editing" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -187,6 +189,195 @@
   </si>
   <si>
     <t>IMG_4441.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4456.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4457.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4458.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4461.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4462.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4463.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4465.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4466.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4467.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4468.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4469.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4470.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4471.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4472.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4473.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4474.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4475.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4477.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4478.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4479.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4480.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4481.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4482.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4483.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4484.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4485.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4486.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4487.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4488.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4489.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4490.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4491.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4493.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4494.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4495.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4496.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4497.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4498.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4499.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4500.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4501.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4502.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4503.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4504.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4505.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4506.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4507.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4508.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4509.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4510.JPG                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_4511.JPG                                                         </t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подьем </t>
+  </si>
+  <si>
+    <t>тряпки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работа </t>
+  </si>
+  <si>
+    <t>ремонт машинки</t>
+  </si>
+  <si>
+    <t>замена запчастей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">химичистка </t>
+  </si>
+  <si>
+    <t>ремонт холодильника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потолки </t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>надо посмотреть на него!!!!</t>
   </si>
 </sst>
 </file>
@@ -194,7 +385,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -225,10 +416,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4891A2-5465-49F7-9424-5BA29267FBE5}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,176 +748,179 @@
     <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>45620</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>3097.18</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45553</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>476</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45605</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1735.34</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45568</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>325</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>45609</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>149.9</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45612</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45622</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>2097.98</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>45606</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>45606</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>2300</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>45608</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>548</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>45597</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>45572</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>45604</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>835</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>45598</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>485</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>45598</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1760</v>
       </c>
       <c r="C16" t="s">
@@ -733,10 +928,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>45602</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>164</v>
       </c>
       <c r="C17" t="s">
@@ -744,10 +939,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>45607</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>65</v>
       </c>
       <c r="C18" t="s">
@@ -755,10 +950,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>45617</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>2241</v>
       </c>
       <c r="C19" t="s">
@@ -766,10 +961,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>45606</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>868</v>
       </c>
       <c r="C20" t="s">
@@ -777,10 +972,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>45605</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>2500</v>
       </c>
       <c r="C21" t="s">
@@ -788,10 +983,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>45605</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>10760</v>
       </c>
       <c r="C22" t="s">
@@ -799,10 +994,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>45553</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>2760.4</v>
       </c>
       <c r="C23" t="s">
@@ -810,10 +1005,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>45604</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>625.29999999999995</v>
       </c>
       <c r="C24" t="s">
@@ -821,10 +1016,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>45598</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>783.1</v>
       </c>
       <c r="C25" t="s">
@@ -832,10 +1027,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>45594</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>9740</v>
       </c>
       <c r="C26" t="s">
@@ -843,10 +1038,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>45546</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>185</v>
       </c>
       <c r="C27" t="s">
@@ -854,10 +1049,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>45621</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>400</v>
       </c>
       <c r="C28" t="s">
@@ -865,10 +1060,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>45617</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>40</v>
       </c>
       <c r="C29" t="s">
@@ -876,10 +1071,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>45619</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>620</v>
       </c>
       <c r="C30" t="s">
@@ -887,10 +1082,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>45602</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>552</v>
       </c>
       <c r="C31" t="s">
@@ -898,10 +1093,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>45573</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>450.8</v>
       </c>
       <c r="C32" t="s">
@@ -909,10 +1104,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>45566</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>5940</v>
       </c>
       <c r="C33" t="s">
@@ -920,10 +1115,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>45561</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>593.5</v>
       </c>
       <c r="C34" t="s">
@@ -931,10 +1126,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>45548</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>60</v>
       </c>
       <c r="C35" t="s">
@@ -942,10 +1137,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>45562</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>131</v>
       </c>
       <c r="C36" t="s">
@@ -953,10 +1148,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>45547</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>941.18</v>
       </c>
       <c r="C37" t="s">
@@ -964,10 +1159,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>45558</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>7942</v>
       </c>
       <c r="C38" t="s">
@@ -975,10 +1170,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>45572</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>630</v>
       </c>
       <c r="C39" t="s">
@@ -986,10 +1181,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>45616</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>73</v>
       </c>
       <c r="C40" t="s">
@@ -997,10 +1192,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>45607</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>137.6</v>
       </c>
       <c r="C41" t="s">
@@ -1008,10 +1203,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>45609</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>30</v>
       </c>
       <c r="C42" t="s">
@@ -1019,10 +1214,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>45553</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>480</v>
       </c>
       <c r="C43" t="s">
@@ -1030,10 +1225,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>45557</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>150</v>
       </c>
       <c r="C44" t="s">
@@ -1041,10 +1236,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>45557</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>650</v>
       </c>
       <c r="C45" t="s">
@@ -1052,10 +1247,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>45555</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>130</v>
       </c>
       <c r="C46" t="s">
@@ -1063,10 +1258,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>45574</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>80</v>
       </c>
       <c r="C47" t="s">
@@ -1074,28 +1269,901 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>45574</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>900</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>45574</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52">
+        <v>161.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54">
+        <v>431.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55">
+        <v>600</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56">
+        <v>600</v>
+      </c>
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58">
+        <v>627.70000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60">
+        <v>836.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61">
+        <v>1000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62">
+        <v>1200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63">
+        <v>1400</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64">
+        <v>1400</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65">
+        <v>2300</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+      <c r="B66">
+        <v>2400</v>
+      </c>
+      <c r="D66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+      <c r="B67">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+      <c r="B68">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+      <c r="B69">
+        <v>6096.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70">
+        <v>6121.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71">
+        <v>7027.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72">
+        <v>7800</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79">
+        <v>19500</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45851</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2654.2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1867.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B84" s="2">
+        <v>18590</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2791</v>
+      </c>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B87" s="2">
+        <v>10316.73</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2069.16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1835</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B90" s="2">
+        <v>6360</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B91" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1683</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2358</v>
+      </c>
+      <c r="C93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45620</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2527</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B95" s="2">
+        <v>17290</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2950</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B97" s="2">
+        <v>13980</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B98" s="2">
+        <v>13979.7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3314</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2596</v>
+      </c>
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B102" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B103" s="2">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B104" s="2">
+        <v>450</v>
+      </c>
+      <c r="C104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B105" s="2">
+        <v>190</v>
+      </c>
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B106" s="2">
+        <v>212.46</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1270</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B109" s="2">
+        <v>166.2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B110" s="2">
+        <v>880</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B111" s="2">
+        <v>220</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B112" s="2">
+        <v>845</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B113" s="2">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B116" s="2">
+        <v>377.3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B117" s="2">
+        <v>438</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B118" s="2">
+        <v>366.1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1525</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B120" s="2">
+        <v>510</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B121" s="2">
+        <v>341</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B122" s="2">
+        <v>322.74</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1715</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B124" s="2">
+        <v>86</v>
+      </c>
+      <c r="C124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2358</v>
+      </c>
+      <c r="C125" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B126" s="2">
+        <v>22438</v>
+      </c>
+      <c r="C126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B127" s="2">
+        <v>590</v>
+      </c>
+      <c r="C127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B128" s="2">
+        <v>360</v>
+      </c>
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B129" s="2">
+        <v>660</v>
+      </c>
+      <c r="C129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B130" s="2">
+        <v>86</v>
+      </c>
+      <c r="C130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B131" s="2">
+        <v>394.5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B132" s="2">
+        <v>243.2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814F6536-3AD2-4E84-B8E7-D483785A778A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>42000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6997B784-58AA-4323-AA03-9FF0ABEC24D8}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-edit.xlsx
+++ b/data-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\HTML\cheque-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E849F-41A9-4B3A-BF74-66CC9264279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6682C242-B4CF-4E87-BA1B-8965DB93C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C1C8DE55-10D6-4C70-BDB2-55145438E4CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1C8DE55-10D6-4C70-BDB2-55145438E4CB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -416,11 +416,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4891A2-5465-49F7-9424-5BA29267FBE5}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -749,7 +748,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -763,7 +762,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>45620</v>
       </c>
       <c r="B2">
@@ -774,7 +773,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>45553</v>
       </c>
       <c r="B3">
@@ -785,7 +784,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>45605</v>
       </c>
       <c r="B4">
@@ -796,7 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>45568</v>
       </c>
       <c r="B5">
@@ -807,7 +806,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>45609</v>
       </c>
       <c r="B6">
@@ -818,7 +817,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>45612</v>
       </c>
       <c r="B7">
@@ -829,7 +828,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>45622</v>
       </c>
       <c r="B8">
@@ -840,7 +839,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>45606</v>
       </c>
       <c r="B9">
@@ -851,7 +850,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>45606</v>
       </c>
       <c r="B10">
@@ -862,7 +861,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>45608</v>
       </c>
       <c r="B11">
@@ -873,7 +872,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>45597</v>
       </c>
       <c r="B12">
@@ -884,7 +883,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>45572</v>
       </c>
       <c r="B13">
@@ -895,7 +894,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>45604</v>
       </c>
       <c r="B14">
@@ -906,7 +905,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>45598</v>
       </c>
       <c r="B15">
@@ -917,7 +916,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>45598</v>
       </c>
       <c r="B16">
@@ -928,7 +927,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>45602</v>
       </c>
       <c r="B17">
@@ -939,7 +938,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>45607</v>
       </c>
       <c r="B18">
@@ -950,7 +949,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>45617</v>
       </c>
       <c r="B19">
@@ -961,7 +960,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>45606</v>
       </c>
       <c r="B20">
@@ -972,7 +971,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>45605</v>
       </c>
       <c r="B21">
@@ -983,7 +982,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>45605</v>
       </c>
       <c r="B22">
@@ -994,7 +993,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>45553</v>
       </c>
       <c r="B23">
@@ -1005,7 +1004,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>45604</v>
       </c>
       <c r="B24">
@@ -1016,7 +1015,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>45598</v>
       </c>
       <c r="B25">
@@ -1027,7 +1026,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>45594</v>
       </c>
       <c r="B26">
@@ -1038,7 +1037,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>45546</v>
       </c>
       <c r="B27">
@@ -1049,7 +1048,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>45621</v>
       </c>
       <c r="B28">
@@ -1060,7 +1059,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>45617</v>
       </c>
       <c r="B29">
@@ -1071,7 +1070,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>45619</v>
       </c>
       <c r="B30">
@@ -1082,7 +1081,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>45602</v>
       </c>
       <c r="B31">
@@ -1093,7 +1092,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>45573</v>
       </c>
       <c r="B32">
@@ -1104,7 +1103,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>45566</v>
       </c>
       <c r="B33">
@@ -1115,7 +1114,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>45561</v>
       </c>
       <c r="B34">
@@ -1126,7 +1125,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>45548</v>
       </c>
       <c r="B35">
@@ -1137,7 +1136,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>45562</v>
       </c>
       <c r="B36">
@@ -1148,7 +1147,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>45547</v>
       </c>
       <c r="B37">
@@ -1159,7 +1158,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>45558</v>
       </c>
       <c r="B38">
@@ -1170,7 +1169,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>45572</v>
       </c>
       <c r="B39">
@@ -1181,7 +1180,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>45616</v>
       </c>
       <c r="B40">
@@ -1192,7 +1191,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>45607</v>
       </c>
       <c r="B41">
@@ -1203,7 +1202,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>45609</v>
       </c>
       <c r="B42">
@@ -1214,7 +1213,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>45553</v>
       </c>
       <c r="B43">
@@ -1225,7 +1224,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>45557</v>
       </c>
       <c r="B44">
@@ -1236,7 +1235,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>45557</v>
       </c>
       <c r="B45">
@@ -1247,7 +1246,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>45555</v>
       </c>
       <c r="B46">
@@ -1258,7 +1257,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>45574</v>
       </c>
       <c r="B47">
@@ -1269,7 +1268,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>45574</v>
       </c>
       <c r="B48">
@@ -1280,7 +1279,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>45574</v>
       </c>
       <c r="B49">
@@ -1291,37 +1290,31 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50"/>
       <c r="B50">
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51"/>
       <c r="B51">
         <v>88.8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52"/>
       <c r="B52">
         <v>161.46</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53"/>
       <c r="B53">
         <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54"/>
       <c r="B54">
         <v>431.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55"/>
       <c r="B55">
         <v>600</v>
       </c>
@@ -1330,7 +1323,6 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56"/>
       <c r="B56">
         <v>600</v>
       </c>
@@ -1339,31 +1331,26 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57"/>
       <c r="B57">
         <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58"/>
       <c r="B58">
         <v>627.70000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59"/>
       <c r="B59">
         <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60"/>
       <c r="B60">
         <v>836.14</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61"/>
       <c r="B61">
         <v>1000</v>
       </c>
@@ -1372,7 +1359,6 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62"/>
       <c r="B62">
         <v>1200</v>
       </c>
@@ -1381,7 +1367,6 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63"/>
       <c r="B63">
         <v>1400</v>
       </c>
@@ -1390,7 +1375,6 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64"/>
       <c r="B64">
         <v>1400</v>
       </c>
@@ -1398,8 +1382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65"/>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2300</v>
       </c>
@@ -1407,8 +1390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66"/>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2400</v>
       </c>
@@ -1416,38 +1398,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67"/>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4650</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68"/>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5495</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69"/>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>6096.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70"/>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>6121.15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71"/>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>7027.5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72"/>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7800</v>
       </c>
@@ -1455,44 +1431,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73"/>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>9000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74"/>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>11300</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75"/>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>11500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>12800</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77"/>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>13200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78"/>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>16800</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79"/>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>19500</v>
       </c>
@@ -1500,14 +1469,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80"/>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>19500</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81"/>
       <c r="B81">
         <v>20000</v>
       </c>
@@ -2086,7 +2053,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
